--- a/Base/Backlog_7.xlsx
+++ b/Base/Backlog_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472D646F-B70A-4875-962C-256BD4F3A72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005BEB63-3431-4B0F-8F98-E3D4290495A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="30">
   <si>
     <t>Backlog</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Alana Neris</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -179,12 +182,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,6 +251,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -561,7 +573,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,7 +649,7 @@
         <v>45614</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>12</v>
@@ -669,7 +681,7 @@
         <v>45614</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -701,7 +713,7 @@
         <v>45614</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>12</v>
@@ -797,7 +809,7 @@
         <v>45614</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>12</v>
@@ -829,7 +841,7 @@
         <v>45614</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>12</v>
@@ -925,7 +937,7 @@
         <v>45614</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>12</v>
@@ -1086,7 +1098,7 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1162,8 +1174,8 @@
       <c r="H2" s="11">
         <v>45614</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
+      <c r="I2" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>13</v>
@@ -1194,8 +1206,8 @@
       <c r="H3" s="11">
         <v>45614</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
+      <c r="I3" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>13</v>
@@ -1226,8 +1238,8 @@
       <c r="H4" s="11">
         <v>45614</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
+      <c r="I4" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>13</v>
@@ -1258,8 +1270,8 @@
       <c r="H5" s="11">
         <v>45614</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
+      <c r="I5" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>13</v>
@@ -1290,8 +1302,8 @@
       <c r="H6" s="11">
         <v>45614</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
+      <c r="I6" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>13</v>
@@ -1322,8 +1334,8 @@
       <c r="H7" s="11">
         <v>45614</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
+      <c r="I7" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>13</v>
@@ -1354,8 +1366,8 @@
       <c r="H8" s="11">
         <v>45614</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
+      <c r="I8" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>13</v>
@@ -1386,8 +1398,8 @@
       <c r="H9" s="11">
         <v>45614</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>14</v>
+      <c r="I9" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>13</v>
@@ -1482,8 +1494,8 @@
       <c r="H12" s="11">
         <v>45614</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>14</v>
+      <c r="I12" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>13</v>
@@ -1578,8 +1590,8 @@
       <c r="H15" s="11">
         <v>45614</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>14</v>
+      <c r="I15" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>13</v>
@@ -1610,8 +1622,8 @@
       <c r="H16" s="11">
         <v>45614</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>14</v>
+      <c r="I16" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>13</v>
@@ -1642,8 +1654,8 @@
       <c r="H17" s="11">
         <v>45614</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>14</v>
+      <c r="I17" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>13</v>
@@ -1706,8 +1718,8 @@
       <c r="H19" s="11">
         <v>45614</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>14</v>
+      <c r="I19" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>13</v>
@@ -1738,8 +1750,8 @@
       <c r="H20" s="11">
         <v>45614</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>14</v>
+      <c r="I20" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>13</v>
@@ -1808,8 +1820,8 @@
       <c r="H22" s="11">
         <v>45614</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>14</v>
+      <c r="I22" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>13</v>
@@ -1872,8 +1884,8 @@
       <c r="H24" s="11">
         <v>45614</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>14</v>
+      <c r="I24" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>13</v>
@@ -1904,8 +1916,8 @@
       <c r="H25" s="11">
         <v>45614</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>14</v>
+      <c r="I25" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>13</v>
@@ -1936,8 +1948,8 @@
       <c r="H26" s="11">
         <v>45614</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>14</v>
+      <c r="I26" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>13</v>
@@ -1968,8 +1980,8 @@
       <c r="H27" s="11">
         <v>45614</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>14</v>
+      <c r="I27" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>13</v>
@@ -2000,8 +2012,8 @@
       <c r="H28" s="11">
         <v>45614</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>14</v>
+      <c r="I28" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>13</v>
@@ -2032,8 +2044,8 @@
       <c r="H29" s="11">
         <v>45614</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>14</v>
+      <c r="I29" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>13</v>

--- a/Base/Backlog_7.xlsx
+++ b/Base/Backlog_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005BEB63-3431-4B0F-8F98-E3D4290495A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD82273E-4954-4238-8591-0EA2F5C451E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="29">
   <si>
     <t>Backlog</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Pendente</t>
-  </si>
-  <si>
-    <t>Semana 07</t>
   </si>
   <si>
     <t>Diogo Barbin</t>
@@ -572,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -628,10 +625,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7</v>
       </c>
       <c r="D2" s="11">
         <v>45614</v>
@@ -649,7 +646,7 @@
         <v>45614</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>12</v>
@@ -660,10 +657,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7</v>
       </c>
       <c r="D3" s="11">
         <v>45614</v>
@@ -681,7 +678,7 @@
         <v>45614</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -692,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7</v>
       </c>
       <c r="D4" s="11">
         <v>45614</v>
@@ -713,7 +710,7 @@
         <v>45614</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>12</v>
@@ -724,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
       </c>
       <c r="D5" s="11">
         <v>45614</v>
@@ -756,10 +753,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7</v>
       </c>
       <c r="D6" s="11">
         <v>45614</v>
@@ -788,10 +785,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
       </c>
       <c r="D7" s="11">
         <v>45614</v>
@@ -809,7 +806,7 @@
         <v>45614</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>12</v>
@@ -820,10 +817,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
       </c>
       <c r="D8" s="11">
         <v>45614</v>
@@ -841,7 +838,7 @@
         <v>45614</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>12</v>
@@ -852,10 +849,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7</v>
       </c>
       <c r="D9" s="11">
         <v>45614</v>
@@ -884,10 +881,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7</v>
       </c>
       <c r="D10" s="11">
         <v>45614</v>
@@ -916,10 +913,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
       </c>
       <c r="D11" s="11">
         <v>45614</v>
@@ -937,7 +934,7 @@
         <v>45614</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>12</v>
@@ -948,10 +945,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7</v>
       </c>
       <c r="D12" s="11">
         <v>45614</v>
@@ -980,10 +977,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7</v>
       </c>
       <c r="D13" s="11">
         <v>45614</v>
@@ -1097,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1154,10 +1151,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7</v>
       </c>
       <c r="D2" s="11">
         <v>45614</v>
@@ -1175,7 +1172,7 @@
         <v>45614</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>13</v>
@@ -1186,10 +1183,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7</v>
       </c>
       <c r="D3" s="11">
         <v>45614</v>
@@ -1207,7 +1204,7 @@
         <v>45614</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>13</v>
@@ -1218,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7</v>
       </c>
       <c r="D4" s="11">
         <v>45614</v>
@@ -1239,7 +1236,7 @@
         <v>45614</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>13</v>
@@ -1250,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
       </c>
       <c r="D5" s="11">
         <v>45614</v>
@@ -1271,7 +1268,7 @@
         <v>45614</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>13</v>
@@ -1282,10 +1279,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7</v>
       </c>
       <c r="D6" s="11">
         <v>45614</v>
@@ -1303,7 +1300,7 @@
         <v>45614</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>13</v>
@@ -1314,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
       </c>
       <c r="D7" s="11">
         <v>45614</v>
@@ -1335,7 +1332,7 @@
         <v>45614</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>13</v>
@@ -1346,10 +1343,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
       </c>
       <c r="D8" s="11">
         <v>45614</v>
@@ -1367,7 +1364,7 @@
         <v>45614</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>13</v>
@@ -1378,10 +1375,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7</v>
       </c>
       <c r="D9" s="11">
         <v>45614</v>
@@ -1399,7 +1396,7 @@
         <v>45614</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>13</v>
@@ -1410,10 +1407,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7</v>
       </c>
       <c r="D10" s="11">
         <v>45614</v>
@@ -1442,10 +1439,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
       </c>
       <c r="D11" s="11">
         <v>45614</v>
@@ -1474,10 +1471,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7</v>
       </c>
       <c r="D12" s="11">
         <v>45614</v>
@@ -1495,7 +1492,7 @@
         <v>45614</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>13</v>
@@ -1506,10 +1503,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7</v>
       </c>
       <c r="D13" s="11">
         <v>45614</v>
@@ -1538,10 +1535,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7</v>
       </c>
       <c r="D14" s="11">
         <v>45614</v>
@@ -1570,10 +1567,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7</v>
       </c>
       <c r="D15" s="11">
         <v>45614</v>
@@ -1591,7 +1588,7 @@
         <v>45614</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>13</v>
@@ -1602,10 +1599,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7</v>
       </c>
       <c r="D16" s="11">
         <v>45614</v>
@@ -1623,7 +1620,7 @@
         <v>45614</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>13</v>
@@ -1634,10 +1631,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7</v>
       </c>
       <c r="D17" s="11">
         <v>45614</v>
@@ -1655,7 +1652,7 @@
         <v>45614</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>13</v>
@@ -1666,10 +1663,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7</v>
       </c>
       <c r="D18" s="11">
         <v>45614</v>
@@ -1698,10 +1695,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7</v>
       </c>
       <c r="D19" s="11">
         <v>45614</v>
@@ -1719,7 +1716,7 @@
         <v>45614</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>13</v>
@@ -1730,10 +1727,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7</v>
       </c>
       <c r="D20" s="11">
         <v>45614</v>
@@ -1751,7 +1748,7 @@
         <v>45614</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>13</v>
@@ -1762,10 +1759,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7</v>
       </c>
       <c r="D21" s="11">
         <v>45614</v>
@@ -1800,10 +1797,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7</v>
       </c>
       <c r="D22" s="11">
         <v>45614</v>
@@ -1821,7 +1818,7 @@
         <v>45614</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>13</v>
@@ -1832,10 +1829,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <v>7</v>
       </c>
       <c r="D23" s="11">
         <v>45614</v>
@@ -1864,10 +1861,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7</v>
       </c>
       <c r="D24" s="11">
         <v>45614</v>
@@ -1885,7 +1882,7 @@
         <v>45614</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>13</v>
@@ -1896,10 +1893,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7</v>
       </c>
       <c r="D25" s="11">
         <v>45614</v>
@@ -1917,7 +1914,7 @@
         <v>45614</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>13</v>
@@ -1928,10 +1925,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C26" s="4">
+        <v>7</v>
       </c>
       <c r="D26" s="11">
         <v>45614</v>
@@ -1949,7 +1946,7 @@
         <v>45614</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>13</v>
@@ -1960,10 +1957,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7</v>
       </c>
       <c r="D27" s="11">
         <v>45614</v>
@@ -1981,7 +1978,7 @@
         <v>45614</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>13</v>
@@ -1992,10 +1989,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7</v>
       </c>
       <c r="D28" s="11">
         <v>45614</v>
@@ -2013,7 +2010,7 @@
         <v>45614</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>13</v>
@@ -2024,10 +2021,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C29" s="4">
+        <v>7</v>
       </c>
       <c r="D29" s="11">
         <v>45614</v>
@@ -2045,7 +2042,7 @@
         <v>45614</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>13</v>
